--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\zw_PERSONAL_PROJECTS\Miere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCFE0B4-5556-482A-802F-5B6CA68E3BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448CD799-1D4E-4C81-A5A0-CFA2F494E8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
